--- a/Ferry Notes.xlsx
+++ b/Ferry Notes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrywlto/Documents/dev/src/DAT222x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferry To\Documents\GitHub\DAT222x\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25605" yWindow="465" windowWidth="25605" windowHeight="17625" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Module 5 Quizs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Module 5 Quizs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="154">
   <si>
     <t>variance</t>
   </si>
@@ -707,12 +708,145 @@
       <t>correct</t>
     </r>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>p(defective)</t>
+  </si>
+  <si>
+    <t>p(good)</t>
+  </si>
+  <si>
+    <t>p(face|red) *p(red) = p(red &amp; face)</t>
+  </si>
+  <si>
+    <t>p(red &amp; face) = 1/2 * 12/52</t>
+  </si>
+  <si>
+    <t>p(red)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>p(d=2)</t>
+  </si>
+  <si>
+    <t>Final Q16</t>
+  </si>
+  <si>
+    <t>Final Q15</t>
+  </si>
+  <si>
+    <t>Final Q14</t>
+  </si>
+  <si>
+    <t>Final Q13</t>
+  </si>
+  <si>
+    <t>Final Q11</t>
+  </si>
+  <si>
+    <t>12/52 = 6/26</t>
+  </si>
+  <si>
+    <t>Final Q10</t>
+  </si>
+  <si>
+    <t>Final Q9</t>
+  </si>
+  <si>
+    <t>FinalQ8</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>=5/36</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>for .98 Z=</t>
+  </si>
+  <si>
+    <t>0.98 &lt; X &lt; 1.04</t>
+  </si>
+  <si>
+    <t>for 1.04 Z=</t>
+  </si>
+  <si>
+    <t>=-0.4 &lt; Z &lt; -0.8</t>
+  </si>
+  <si>
+    <t>Final Q27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample size = </t>
+  </si>
+  <si>
+    <t>xbar =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s = </t>
+  </si>
+  <si>
+    <t>alpha =</t>
+  </si>
+  <si>
+    <t>std dev of population</t>
+  </si>
+  <si>
+    <t>h0 mean</t>
+  </si>
+  <si>
+    <t>&lt;=18</t>
+  </si>
+  <si>
+    <t>pop std</t>
+  </si>
+  <si>
+    <t>Z a/2</t>
+  </si>
+  <si>
+    <t>Final Q23</t>
+  </si>
+  <si>
+    <t>Final Q22</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>p(xbar &lt; 390) convert to p(z&lt;-2.5)</t>
+  </si>
+  <si>
+    <t>p(z&lt;-2.5) = 0.621%</t>
+  </si>
+  <si>
+    <t>Final Q21</t>
+  </si>
+  <si>
+    <t>p(xbar &lt; 390)
+(xbar - mu) / (sigma / sqrt(n)) =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -816,6 +950,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF3C3C3C"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -827,12 +968,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -850,26 +997,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -877,14 +1015,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -892,9 +1036,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -907,6 +1058,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1174,29 +1328,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F47" sqref="E46:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="14" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="10.875" style="2"/>
+    <col min="5" max="5" width="38.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.875" style="2"/>
+    <col min="10" max="10" width="10.875" style="3"/>
+    <col min="11" max="13" width="10.875" style="2"/>
+    <col min="14" max="14" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1229,7 +1383,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1274,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1319,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1359,7 +1513,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1391,7 +1545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1414,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1444,7 +1598,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1470,7 +1624,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1493,7 +1647,7 @@
         <v>4.5643546458763842</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1516,7 +1670,7 @@
         <v>0.94718828999832949</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1539,7 +1693,7 @@
         <v>5.2811710001670509E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1551,7 +1705,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1567,7 +1721,7 @@
         <v>1.4638501094228</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1579,7 +1733,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1591,7 +1745,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1603,7 +1757,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1615,7 +1769,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1631,7 +1785,7 @@
         <v>0.13261955589475274</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1647,7 +1801,7 @@
         <v>0.14142184449197273</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1663,13 +1817,13 @@
         <v>0.8585781555080273</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="C21" s="2">
         <f>SUM(C1:C20)</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1840,7 @@
         <v>1.7799999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="G23" s="2">
         <f>1-G22</f>
         <v>0.15865525393145674</v>
@@ -1696,49 +1850,49 @@
         <v>1.6181818181818175</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="2">
         <f>_xlfn.NORM.DIST(60,0.5,I7,TRUE())</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="2">
         <f>_xlfn.BINOM.DIST(60,100,0.5,TRUE)</f>
         <v>0.98239989989114762</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="266" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:11" ht="262.5">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" ht="36.950000000000003" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1762,8 +1916,8 @@
         <v>-1.9599639845400538</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:11" ht="36.950000000000003" customHeight="1">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1789,8 +1943,8 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:11" ht="36.950000000000003" customHeight="1">
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1816,8 +1970,8 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:11" ht="36.950000000000003" customHeight="1">
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1843,52 +1997,52 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="76" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:11" ht="75">
+      <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:11" ht="15.95" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="120" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="46" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="46" spans="1:11" ht="78" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="1:11" ht="78" customHeight="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1907,22 +2061,713 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041599A4-7CD2-4725-9FDA-1CD401C33045}">
+  <dimension ref="A2:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="C7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17">
+        <v>0.05</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17">
+        <v>0.6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <f>(18 - 18.2)/0.15</f>
+        <v>-1.3333333333333286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18">
+        <f>(0.98-1)/0.05</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19">
+        <f>(1-1.04)/0.05</f>
+        <v>-0.80000000000000071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20">
+        <f>0.6/SQRT(16)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <f>8/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="F22" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <f>8/12*7/11*6/10</f>
+        <v>0.25454545454545452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75">
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="2">
+        <f>(1.96*20000/5000)^2</f>
+        <v>61.465599999999995</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="2">
+        <f>35+2.576*10/SQRT(200)</f>
+        <v>36.821507068336544</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" customHeight="1">
+      <c r="H26" s="2">
+        <f>35-2.576*10/SQRT(200)</f>
+        <v>33.178492931663456</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="2">
+        <f>(390-400)/(20/SQRT(25))</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="19">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C33">
+        <f>B33*A33</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E33">
+        <v>-40000</v>
+      </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B47" si="0">1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C47" si="1">B34*A34</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E34">
+        <v>60000</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>100000</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35">
+        <v>0.04</v>
+      </c>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36">
+        <f>SUMPRODUCT(E33:E35,F33:F35)</f>
+        <v>40000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36">
+        <f>_xlfn.BINOM.DIST.RANGE(100,0.04,2)</f>
+        <v>0.14497930699011416</v>
+      </c>
+      <c r="K36" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="L38">
+        <f>L36*L35</f>
+        <v>58.8</v>
+      </c>
+      <c r="M38" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L38)</f>
+        <v>=L36*L35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="L39">
+        <f>L38/5</f>
+        <v>11.76</v>
+      </c>
+      <c r="M39" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(L39)</f>
+        <v>=L38/5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H40">
+        <f>_xlfn.POISSON.DIST(1,2.6,1)</f>
+        <v>0.26738488157160195</v>
+      </c>
+      <c r="L40">
+        <f>L39^2</f>
+        <v>138.29759999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41">
+        <f>1-H40</f>
+        <v>0.73261511842839799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48">
+        <f>SUMPRODUCT(A33:A47,B33:B47)</f>
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C33:C47)</f>
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49">
+        <f>_xlfn.STDEV.P(G45:G48)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H49">
+        <f>G49/SQRT(2)</f>
+        <v>1.5811388300841895</v>
+      </c>
+      <c r="I49">
+        <f>_xlfn.STDEV.P(I45:I48)</f>
+        <v>2.2912878474779199</v>
+      </c>
+      <c r="J49">
+        <f>I49/SQRT(3)</f>
+        <v>1.3228756555322954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="68.1640625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="63.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="68.125" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
@@ -1933,7 +2778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
@@ -1944,7 +2789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="63">
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
@@ -1955,7 +2800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="63">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -1966,7 +2811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="110.25">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +2822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="110.25">
       <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
@@ -1988,7 +2833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="126">
       <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
@@ -1999,7 +2844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="94.5">
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
@@ -2010,7 +2855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="78.75">
       <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
@@ -2021,7 +2866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="110.25">
       <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
@@ -2032,7 +2877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="110.25">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
@@ -2043,7 +2888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="110.25">
       <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
@@ -2054,7 +2899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="141.75">
       <c r="A13" s="14" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2910,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="126">
       <c r="A14" s="14" t="s">
         <v>72</v>
       </c>
@@ -2076,7 +2921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="94.5">
       <c r="A15" s="14" t="s">
         <v>74</v>
       </c>
@@ -2087,7 +2932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="110.25">
       <c r="A16" s="14" t="s">
         <v>77</v>
       </c>
@@ -2098,7 +2943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="47.25">
       <c r="A17" s="14" t="s">
         <v>79</v>
       </c>
@@ -2109,7 +2954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="47.25">
       <c r="A18" s="16" t="s">
         <v>81</v>
       </c>
@@ -2120,7 +2965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="47.25">
       <c r="A19" s="14" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +2976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="63">
       <c r="A20" s="14" t="s">
         <v>86</v>
       </c>
@@ -2142,7 +2987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="78.75">
       <c r="A21" s="14" t="s">
         <v>88</v>
       </c>
@@ -2153,7 +2998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="63">
       <c r="A22" s="14" t="s">
         <v>90</v>
       </c>
@@ -2164,7 +3009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="47.25">
       <c r="A23" s="14" t="s">
         <v>92</v>
       </c>
@@ -2175,7 +3020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="47.25">
       <c r="A24" s="16" t="s">
         <v>97</v>
       </c>
@@ -2186,7 +3031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25">
       <c r="A25" s="14" t="s">
         <v>95</v>
       </c>
